--- a/Mining/2021/page2.xlsx
+++ b/Mining/2021/page2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Things\Practice\Mining\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F1F0F-56B3-43B3-A785-692A9DB39318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB40D3F-C20E-4A47-9420-1576C9CD0F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
